--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achernov/aclab/github/VonFreyTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD86AD4C-492D-B449-8BA2-DF7C84C4CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C450FAA-581F-084E-B8AA-C2D9F9DB4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="26080" windowHeight="14940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="26080" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="112">
   <si>
     <t>DATE</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>XOXOO</t>
+  </si>
+  <si>
+    <t>OOOXXOXO</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K421"/>
+  <dimension ref="A1:K451"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15936,6 +15939,1056 @@
         <v>20</v>
       </c>
       <c r="K421">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B422" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" t="s">
+        <v>12</v>
+      </c>
+      <c r="D422" t="s">
+        <v>13</v>
+      </c>
+      <c r="E422" t="s">
+        <v>14</v>
+      </c>
+      <c r="F422">
+        <v>1</v>
+      </c>
+      <c r="G422" t="s">
+        <v>15</v>
+      </c>
+      <c r="H422" t="s">
+        <v>16</v>
+      </c>
+      <c r="I422">
+        <v>21</v>
+      </c>
+      <c r="J422" t="s">
+        <v>29</v>
+      </c>
+      <c r="K422">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423" t="s">
+        <v>14</v>
+      </c>
+      <c r="F423">
+        <v>1</v>
+      </c>
+      <c r="G423" t="s">
+        <v>15</v>
+      </c>
+      <c r="H423" t="s">
+        <v>28</v>
+      </c>
+      <c r="I423">
+        <v>21</v>
+      </c>
+      <c r="J423" t="s">
+        <v>30</v>
+      </c>
+      <c r="K423">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B424" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" t="s">
+        <v>12</v>
+      </c>
+      <c r="D424" t="s">
+        <v>13</v>
+      </c>
+      <c r="E424" t="s">
+        <v>18</v>
+      </c>
+      <c r="F424">
+        <v>1</v>
+      </c>
+      <c r="G424" t="s">
+        <v>19</v>
+      </c>
+      <c r="H424" t="s">
+        <v>16</v>
+      </c>
+      <c r="I424">
+        <v>21</v>
+      </c>
+      <c r="J424" t="s">
+        <v>88</v>
+      </c>
+      <c r="K424">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" t="s">
+        <v>13</v>
+      </c>
+      <c r="E425" t="s">
+        <v>18</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+      <c r="G425" t="s">
+        <v>19</v>
+      </c>
+      <c r="H425" t="s">
+        <v>28</v>
+      </c>
+      <c r="I425">
+        <v>21</v>
+      </c>
+      <c r="J425" t="s">
+        <v>49</v>
+      </c>
+      <c r="K425">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B426" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" t="s">
+        <v>12</v>
+      </c>
+      <c r="D426" t="s">
+        <v>13</v>
+      </c>
+      <c r="E426" t="s">
+        <v>21</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426" t="s">
+        <v>102</v>
+      </c>
+      <c r="H426" t="s">
+        <v>16</v>
+      </c>
+      <c r="I426">
+        <v>21</v>
+      </c>
+      <c r="J426" t="s">
+        <v>88</v>
+      </c>
+      <c r="K426">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B427" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" t="s">
+        <v>13</v>
+      </c>
+      <c r="E427" t="s">
+        <v>21</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427" t="s">
+        <v>102</v>
+      </c>
+      <c r="H427" t="s">
+        <v>28</v>
+      </c>
+      <c r="I427">
+        <v>21</v>
+      </c>
+      <c r="J427" t="s">
+        <v>31</v>
+      </c>
+      <c r="K427">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" t="s">
+        <v>32</v>
+      </c>
+      <c r="E428" t="s">
+        <v>33</v>
+      </c>
+      <c r="F428">
+        <v>2</v>
+      </c>
+      <c r="G428" t="s">
+        <v>15</v>
+      </c>
+      <c r="H428" t="s">
+        <v>16</v>
+      </c>
+      <c r="I428">
+        <v>21</v>
+      </c>
+      <c r="J428" t="s">
+        <v>27</v>
+      </c>
+      <c r="K428">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" t="s">
+        <v>12</v>
+      </c>
+      <c r="D429" t="s">
+        <v>32</v>
+      </c>
+      <c r="E429" t="s">
+        <v>33</v>
+      </c>
+      <c r="F429">
+        <v>2</v>
+      </c>
+      <c r="G429" t="s">
+        <v>15</v>
+      </c>
+      <c r="H429" t="s">
+        <v>28</v>
+      </c>
+      <c r="I429">
+        <v>21</v>
+      </c>
+      <c r="J429" t="s">
+        <v>20</v>
+      </c>
+      <c r="K429">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" t="s">
+        <v>32</v>
+      </c>
+      <c r="E430" t="s">
+        <v>34</v>
+      </c>
+      <c r="F430">
+        <v>2</v>
+      </c>
+      <c r="G430" t="s">
+        <v>19</v>
+      </c>
+      <c r="H430" t="s">
+        <v>16</v>
+      </c>
+      <c r="I430">
+        <v>21</v>
+      </c>
+      <c r="J430" t="s">
+        <v>72</v>
+      </c>
+      <c r="K430">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B431" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" t="s">
+        <v>32</v>
+      </c>
+      <c r="E431" t="s">
+        <v>34</v>
+      </c>
+      <c r="F431">
+        <v>2</v>
+      </c>
+      <c r="G431" t="s">
+        <v>19</v>
+      </c>
+      <c r="H431" t="s">
+        <v>28</v>
+      </c>
+      <c r="I431">
+        <v>21</v>
+      </c>
+      <c r="J431" t="s">
+        <v>92</v>
+      </c>
+      <c r="K431">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B432" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" t="s">
+        <v>32</v>
+      </c>
+      <c r="E432" t="s">
+        <v>35</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+      <c r="G432" t="s">
+        <v>102</v>
+      </c>
+      <c r="H432" t="s">
+        <v>16</v>
+      </c>
+      <c r="I432">
+        <v>21</v>
+      </c>
+      <c r="J432" t="s">
+        <v>74</v>
+      </c>
+      <c r="K432">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433" t="s">
+        <v>32</v>
+      </c>
+      <c r="E433" t="s">
+        <v>35</v>
+      </c>
+      <c r="F433">
+        <v>2</v>
+      </c>
+      <c r="G433" t="s">
+        <v>102</v>
+      </c>
+      <c r="H433" t="s">
+        <v>28</v>
+      </c>
+      <c r="I433">
+        <v>21</v>
+      </c>
+      <c r="J433" t="s">
+        <v>23</v>
+      </c>
+      <c r="K433">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B434" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" t="s">
+        <v>41</v>
+      </c>
+      <c r="E434" t="s">
+        <v>42</v>
+      </c>
+      <c r="F434">
+        <v>4</v>
+      </c>
+      <c r="G434" t="s">
+        <v>15</v>
+      </c>
+      <c r="H434" t="s">
+        <v>16</v>
+      </c>
+      <c r="I434">
+        <v>21</v>
+      </c>
+      <c r="J434" t="s">
+        <v>38</v>
+      </c>
+      <c r="K434">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B435" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435" t="s">
+        <v>41</v>
+      </c>
+      <c r="E435" t="s">
+        <v>42</v>
+      </c>
+      <c r="F435">
+        <v>4</v>
+      </c>
+      <c r="G435" t="s">
+        <v>15</v>
+      </c>
+      <c r="H435" t="s">
+        <v>28</v>
+      </c>
+      <c r="I435">
+        <v>21</v>
+      </c>
+      <c r="J435" t="s">
+        <v>30</v>
+      </c>
+      <c r="K435">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B436" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" t="s">
+        <v>41</v>
+      </c>
+      <c r="E436" t="s">
+        <v>43</v>
+      </c>
+      <c r="F436">
+        <v>4</v>
+      </c>
+      <c r="G436" t="s">
+        <v>19</v>
+      </c>
+      <c r="H436" t="s">
+        <v>16</v>
+      </c>
+      <c r="I436">
+        <v>21</v>
+      </c>
+      <c r="J436" t="s">
+        <v>111</v>
+      </c>
+      <c r="K436">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437" t="s">
+        <v>41</v>
+      </c>
+      <c r="E437" t="s">
+        <v>43</v>
+      </c>
+      <c r="F437">
+        <v>4</v>
+      </c>
+      <c r="G437" t="s">
+        <v>19</v>
+      </c>
+      <c r="H437" t="s">
+        <v>28</v>
+      </c>
+      <c r="I437">
+        <v>21</v>
+      </c>
+      <c r="J437" t="s">
+        <v>31</v>
+      </c>
+      <c r="K437">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A438" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B438" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>12</v>
+      </c>
+      <c r="D438" t="s">
+        <v>41</v>
+      </c>
+      <c r="E438" t="s">
+        <v>45</v>
+      </c>
+      <c r="F438">
+        <v>4</v>
+      </c>
+      <c r="G438" t="s">
+        <v>102</v>
+      </c>
+      <c r="H438" t="s">
+        <v>16</v>
+      </c>
+      <c r="I438">
+        <v>21</v>
+      </c>
+      <c r="J438" t="s">
+        <v>17</v>
+      </c>
+      <c r="K438">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" t="s">
+        <v>41</v>
+      </c>
+      <c r="E439" t="s">
+        <v>45</v>
+      </c>
+      <c r="F439">
+        <v>4</v>
+      </c>
+      <c r="G439" t="s">
+        <v>102</v>
+      </c>
+      <c r="H439" t="s">
+        <v>28</v>
+      </c>
+      <c r="I439">
+        <v>21</v>
+      </c>
+      <c r="J439" t="s">
+        <v>30</v>
+      </c>
+      <c r="K439">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B440" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" t="s">
+        <v>51</v>
+      </c>
+      <c r="E440" t="s">
+        <v>52</v>
+      </c>
+      <c r="F440">
+        <v>5</v>
+      </c>
+      <c r="G440" t="s">
+        <v>15</v>
+      </c>
+      <c r="H440" t="s">
+        <v>16</v>
+      </c>
+      <c r="I440">
+        <v>21</v>
+      </c>
+      <c r="J440" t="s">
+        <v>23</v>
+      </c>
+      <c r="K440">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" t="s">
+        <v>51</v>
+      </c>
+      <c r="E441" t="s">
+        <v>52</v>
+      </c>
+      <c r="F441">
+        <v>5</v>
+      </c>
+      <c r="G441" t="s">
+        <v>15</v>
+      </c>
+      <c r="H441" t="s">
+        <v>28</v>
+      </c>
+      <c r="I441">
+        <v>21</v>
+      </c>
+      <c r="J441" t="s">
+        <v>23</v>
+      </c>
+      <c r="K441">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B442" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" t="s">
+        <v>51</v>
+      </c>
+      <c r="E442" t="s">
+        <v>53</v>
+      </c>
+      <c r="F442">
+        <v>5</v>
+      </c>
+      <c r="G442" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" t="s">
+        <v>16</v>
+      </c>
+      <c r="I442">
+        <v>21</v>
+      </c>
+      <c r="J442" t="s">
+        <v>29</v>
+      </c>
+      <c r="K442">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B443" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" t="s">
+        <v>51</v>
+      </c>
+      <c r="E443" t="s">
+        <v>53</v>
+      </c>
+      <c r="F443">
+        <v>5</v>
+      </c>
+      <c r="G443" t="s">
+        <v>19</v>
+      </c>
+      <c r="H443" t="s">
+        <v>28</v>
+      </c>
+      <c r="I443">
+        <v>21</v>
+      </c>
+      <c r="J443" t="s">
+        <v>27</v>
+      </c>
+      <c r="K443">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A444" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B444" t="s">
+        <v>11</v>
+      </c>
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" t="s">
+        <v>51</v>
+      </c>
+      <c r="E444" t="s">
+        <v>54</v>
+      </c>
+      <c r="F444">
+        <v>5</v>
+      </c>
+      <c r="G444" t="s">
+        <v>102</v>
+      </c>
+      <c r="H444" t="s">
+        <v>16</v>
+      </c>
+      <c r="I444">
+        <v>21</v>
+      </c>
+      <c r="J444" t="s">
+        <v>49</v>
+      </c>
+      <c r="K444">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A445" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" t="s">
+        <v>51</v>
+      </c>
+      <c r="E445" t="s">
+        <v>54</v>
+      </c>
+      <c r="F445">
+        <v>5</v>
+      </c>
+      <c r="G445" t="s">
+        <v>102</v>
+      </c>
+      <c r="H445" t="s">
+        <v>28</v>
+      </c>
+      <c r="I445">
+        <v>21</v>
+      </c>
+      <c r="J445" t="s">
+        <v>50</v>
+      </c>
+      <c r="K445">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A446" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B446" t="s">
+        <v>11</v>
+      </c>
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" t="s">
+        <v>62</v>
+      </c>
+      <c r="E446" t="s">
+        <v>63</v>
+      </c>
+      <c r="F446">
+        <v>6</v>
+      </c>
+      <c r="G446" t="s">
+        <v>15</v>
+      </c>
+      <c r="H446" t="s">
+        <v>16</v>
+      </c>
+      <c r="I446">
+        <v>21</v>
+      </c>
+      <c r="J446" t="s">
+        <v>49</v>
+      </c>
+      <c r="K446">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" t="s">
+        <v>62</v>
+      </c>
+      <c r="E447" t="s">
+        <v>63</v>
+      </c>
+      <c r="F447">
+        <v>6</v>
+      </c>
+      <c r="G447" t="s">
+        <v>15</v>
+      </c>
+      <c r="H447" t="s">
+        <v>28</v>
+      </c>
+      <c r="I447">
+        <v>21</v>
+      </c>
+      <c r="J447" t="s">
+        <v>30</v>
+      </c>
+      <c r="K447">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A448" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B448" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" t="s">
+        <v>62</v>
+      </c>
+      <c r="E448" t="s">
+        <v>64</v>
+      </c>
+      <c r="F448">
+        <v>6</v>
+      </c>
+      <c r="G448" t="s">
+        <v>19</v>
+      </c>
+      <c r="H448" t="s">
+        <v>16</v>
+      </c>
+      <c r="I448">
+        <v>21</v>
+      </c>
+      <c r="J448" t="s">
+        <v>30</v>
+      </c>
+      <c r="K448">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A449" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449" t="s">
+        <v>62</v>
+      </c>
+      <c r="E449" t="s">
+        <v>64</v>
+      </c>
+      <c r="F449">
+        <v>6</v>
+      </c>
+      <c r="G449" t="s">
+        <v>19</v>
+      </c>
+      <c r="H449" t="s">
+        <v>28</v>
+      </c>
+      <c r="I449">
+        <v>21</v>
+      </c>
+      <c r="J449" t="s">
+        <v>30</v>
+      </c>
+      <c r="K449">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A450" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B450" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450" t="s">
+        <v>62</v>
+      </c>
+      <c r="E450" t="s">
+        <v>65</v>
+      </c>
+      <c r="F450">
+        <v>6</v>
+      </c>
+      <c r="G450" t="s">
+        <v>102</v>
+      </c>
+      <c r="H450" t="s">
+        <v>16</v>
+      </c>
+      <c r="I450">
+        <v>21</v>
+      </c>
+      <c r="J450" t="s">
+        <v>27</v>
+      </c>
+      <c r="K450">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A451" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B451" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451" t="s">
+        <v>62</v>
+      </c>
+      <c r="E451" t="s">
+        <v>65</v>
+      </c>
+      <c r="F451">
+        <v>6</v>
+      </c>
+      <c r="G451" t="s">
+        <v>102</v>
+      </c>
+      <c r="H451" t="s">
+        <v>28</v>
+      </c>
+      <c r="I451">
+        <v>21</v>
+      </c>
+      <c r="J451" t="s">
+        <v>23</v>
+      </c>
+      <c r="K451">
         <v>5.18</v>
       </c>
     </row>
@@ -15948,7 +17001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achernov/aclab/github/VonFreyTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C450FAA-581F-084E-B8AA-C2D9F9DB4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEEA9A4-F1AD-604C-8589-4D5F4F5D8B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="26080" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34540" yWindow="-3100" windowWidth="26080" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="112">
   <si>
     <t>DATE</t>
   </si>
@@ -840,10 +840,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1199,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:K481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16989,6 +16990,1056 @@
         <v>23</v>
       </c>
       <c r="K451">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A452" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B452" t="s">
+        <v>11</v>
+      </c>
+      <c r="C452" t="s">
+        <v>12</v>
+      </c>
+      <c r="D452" t="s">
+        <v>13</v>
+      </c>
+      <c r="E452" t="s">
+        <v>24</v>
+      </c>
+      <c r="F452">
+        <v>7</v>
+      </c>
+      <c r="G452" t="s">
+        <v>15</v>
+      </c>
+      <c r="H452" t="s">
+        <v>16</v>
+      </c>
+      <c r="I452">
+        <v>21</v>
+      </c>
+      <c r="J452" t="s">
+        <v>72</v>
+      </c>
+      <c r="K452">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A453" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B453" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453" t="s">
+        <v>13</v>
+      </c>
+      <c r="E453" t="s">
+        <v>24</v>
+      </c>
+      <c r="F453">
+        <v>7</v>
+      </c>
+      <c r="G453" t="s">
+        <v>15</v>
+      </c>
+      <c r="H453" t="s">
+        <v>28</v>
+      </c>
+      <c r="I453">
+        <v>21</v>
+      </c>
+      <c r="J453" t="s">
+        <v>38</v>
+      </c>
+      <c r="K453">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A454" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B454" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" t="s">
+        <v>12</v>
+      </c>
+      <c r="D454" t="s">
+        <v>13</v>
+      </c>
+      <c r="E454" t="s">
+        <v>25</v>
+      </c>
+      <c r="F454">
+        <v>7</v>
+      </c>
+      <c r="G454" t="s">
+        <v>19</v>
+      </c>
+      <c r="H454" t="s">
+        <v>16</v>
+      </c>
+      <c r="I454">
+        <v>21</v>
+      </c>
+      <c r="J454" t="s">
+        <v>38</v>
+      </c>
+      <c r="K454">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A455" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B455" t="s">
+        <v>11</v>
+      </c>
+      <c r="C455" t="s">
+        <v>12</v>
+      </c>
+      <c r="D455" t="s">
+        <v>13</v>
+      </c>
+      <c r="E455" t="s">
+        <v>25</v>
+      </c>
+      <c r="F455">
+        <v>7</v>
+      </c>
+      <c r="G455" t="s">
+        <v>19</v>
+      </c>
+      <c r="H455" t="s">
+        <v>28</v>
+      </c>
+      <c r="I455">
+        <v>21</v>
+      </c>
+      <c r="J455" t="s">
+        <v>31</v>
+      </c>
+      <c r="K455">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A456" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B456" t="s">
+        <v>11</v>
+      </c>
+      <c r="C456" t="s">
+        <v>12</v>
+      </c>
+      <c r="D456" t="s">
+        <v>13</v>
+      </c>
+      <c r="E456" t="s">
+        <v>26</v>
+      </c>
+      <c r="F456">
+        <v>7</v>
+      </c>
+      <c r="G456" t="s">
+        <v>102</v>
+      </c>
+      <c r="H456" t="s">
+        <v>16</v>
+      </c>
+      <c r="I456">
+        <v>21</v>
+      </c>
+      <c r="J456" t="s">
+        <v>74</v>
+      </c>
+      <c r="K456">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A457" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B457" t="s">
+        <v>11</v>
+      </c>
+      <c r="C457" t="s">
+        <v>12</v>
+      </c>
+      <c r="D457" t="s">
+        <v>13</v>
+      </c>
+      <c r="E457" t="s">
+        <v>26</v>
+      </c>
+      <c r="F457">
+        <v>7</v>
+      </c>
+      <c r="G457" t="s">
+        <v>102</v>
+      </c>
+      <c r="H457" t="s">
+        <v>28</v>
+      </c>
+      <c r="I457">
+        <v>21</v>
+      </c>
+      <c r="J457" t="s">
+        <v>31</v>
+      </c>
+      <c r="K457">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A458" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B458" t="s">
+        <v>11</v>
+      </c>
+      <c r="C458" t="s">
+        <v>12</v>
+      </c>
+      <c r="D458" t="s">
+        <v>32</v>
+      </c>
+      <c r="E458" t="s">
+        <v>36</v>
+      </c>
+      <c r="F458">
+        <v>8</v>
+      </c>
+      <c r="G458" t="s">
+        <v>15</v>
+      </c>
+      <c r="H458" t="s">
+        <v>16</v>
+      </c>
+      <c r="I458">
+        <v>21</v>
+      </c>
+      <c r="J458" t="s">
+        <v>93</v>
+      </c>
+      <c r="K458">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A459" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B459" t="s">
+        <v>11</v>
+      </c>
+      <c r="C459" t="s">
+        <v>12</v>
+      </c>
+      <c r="D459" t="s">
+        <v>32</v>
+      </c>
+      <c r="E459" t="s">
+        <v>36</v>
+      </c>
+      <c r="F459">
+        <v>8</v>
+      </c>
+      <c r="G459" t="s">
+        <v>15</v>
+      </c>
+      <c r="H459" t="s">
+        <v>28</v>
+      </c>
+      <c r="I459">
+        <v>21</v>
+      </c>
+      <c r="J459" t="s">
+        <v>79</v>
+      </c>
+      <c r="K459">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A460" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B460" t="s">
+        <v>11</v>
+      </c>
+      <c r="C460" t="s">
+        <v>12</v>
+      </c>
+      <c r="D460" t="s">
+        <v>32</v>
+      </c>
+      <c r="E460" t="s">
+        <v>37</v>
+      </c>
+      <c r="F460">
+        <v>8</v>
+      </c>
+      <c r="G460" t="s">
+        <v>19</v>
+      </c>
+      <c r="H460" t="s">
+        <v>16</v>
+      </c>
+      <c r="I460">
+        <v>21</v>
+      </c>
+      <c r="J460" t="s">
+        <v>79</v>
+      </c>
+      <c r="K460">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A461" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B461" t="s">
+        <v>11</v>
+      </c>
+      <c r="C461" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461" t="s">
+        <v>32</v>
+      </c>
+      <c r="E461" t="s">
+        <v>37</v>
+      </c>
+      <c r="F461">
+        <v>8</v>
+      </c>
+      <c r="G461" t="s">
+        <v>19</v>
+      </c>
+      <c r="H461" t="s">
+        <v>28</v>
+      </c>
+      <c r="I461">
+        <v>21</v>
+      </c>
+      <c r="J461" t="s">
+        <v>27</v>
+      </c>
+      <c r="K461">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A462" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B462" t="s">
+        <v>11</v>
+      </c>
+      <c r="C462" t="s">
+        <v>12</v>
+      </c>
+      <c r="D462" t="s">
+        <v>32</v>
+      </c>
+      <c r="E462" t="s">
+        <v>39</v>
+      </c>
+      <c r="F462">
+        <v>8</v>
+      </c>
+      <c r="G462" t="s">
+        <v>102</v>
+      </c>
+      <c r="H462" t="s">
+        <v>16</v>
+      </c>
+      <c r="I462">
+        <v>21</v>
+      </c>
+      <c r="J462" t="s">
+        <v>31</v>
+      </c>
+      <c r="K462">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A463" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B463" t="s">
+        <v>11</v>
+      </c>
+      <c r="C463" t="s">
+        <v>12</v>
+      </c>
+      <c r="D463" t="s">
+        <v>32</v>
+      </c>
+      <c r="E463" t="s">
+        <v>39</v>
+      </c>
+      <c r="F463">
+        <v>8</v>
+      </c>
+      <c r="G463" t="s">
+        <v>102</v>
+      </c>
+      <c r="H463" t="s">
+        <v>28</v>
+      </c>
+      <c r="I463">
+        <v>21</v>
+      </c>
+      <c r="J463" t="s">
+        <v>31</v>
+      </c>
+      <c r="K463">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A464" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B464" t="s">
+        <v>11</v>
+      </c>
+      <c r="C464" t="s">
+        <v>12</v>
+      </c>
+      <c r="D464" t="s">
+        <v>41</v>
+      </c>
+      <c r="E464" t="s">
+        <v>46</v>
+      </c>
+      <c r="F464">
+        <v>9</v>
+      </c>
+      <c r="G464" t="s">
+        <v>15</v>
+      </c>
+      <c r="H464" t="s">
+        <v>16</v>
+      </c>
+      <c r="I464">
+        <v>21</v>
+      </c>
+      <c r="J464" t="s">
+        <v>38</v>
+      </c>
+      <c r="K464">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A465" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B465" t="s">
+        <v>11</v>
+      </c>
+      <c r="C465" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465" t="s">
+        <v>41</v>
+      </c>
+      <c r="E465" t="s">
+        <v>46</v>
+      </c>
+      <c r="F465">
+        <v>9</v>
+      </c>
+      <c r="G465" t="s">
+        <v>15</v>
+      </c>
+      <c r="H465" t="s">
+        <v>28</v>
+      </c>
+      <c r="I465">
+        <v>21</v>
+      </c>
+      <c r="J465" t="s">
+        <v>17</v>
+      </c>
+      <c r="K465">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A466" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B466" t="s">
+        <v>11</v>
+      </c>
+      <c r="C466" t="s">
+        <v>12</v>
+      </c>
+      <c r="D466" t="s">
+        <v>41</v>
+      </c>
+      <c r="E466" t="s">
+        <v>47</v>
+      </c>
+      <c r="F466">
+        <v>9</v>
+      </c>
+      <c r="G466" t="s">
+        <v>19</v>
+      </c>
+      <c r="H466" t="s">
+        <v>16</v>
+      </c>
+      <c r="I466">
+        <v>21</v>
+      </c>
+      <c r="J466" t="s">
+        <v>79</v>
+      </c>
+      <c r="K466">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A467" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B467" t="s">
+        <v>11</v>
+      </c>
+      <c r="C467" t="s">
+        <v>12</v>
+      </c>
+      <c r="D467" t="s">
+        <v>41</v>
+      </c>
+      <c r="E467" t="s">
+        <v>47</v>
+      </c>
+      <c r="F467">
+        <v>9</v>
+      </c>
+      <c r="G467" t="s">
+        <v>19</v>
+      </c>
+      <c r="H467" t="s">
+        <v>28</v>
+      </c>
+      <c r="I467">
+        <v>21</v>
+      </c>
+      <c r="J467" t="s">
+        <v>85</v>
+      </c>
+      <c r="K467">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A468" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B468" t="s">
+        <v>11</v>
+      </c>
+      <c r="C468" t="s">
+        <v>12</v>
+      </c>
+      <c r="D468" t="s">
+        <v>41</v>
+      </c>
+      <c r="E468" t="s">
+        <v>48</v>
+      </c>
+      <c r="F468">
+        <v>9</v>
+      </c>
+      <c r="G468" t="s">
+        <v>102</v>
+      </c>
+      <c r="H468" t="s">
+        <v>16</v>
+      </c>
+      <c r="I468">
+        <v>21</v>
+      </c>
+      <c r="J468" t="s">
+        <v>27</v>
+      </c>
+      <c r="K468">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A469" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B469" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469" t="s">
+        <v>12</v>
+      </c>
+      <c r="D469" t="s">
+        <v>41</v>
+      </c>
+      <c r="E469" t="s">
+        <v>48</v>
+      </c>
+      <c r="F469">
+        <v>9</v>
+      </c>
+      <c r="G469" t="s">
+        <v>102</v>
+      </c>
+      <c r="H469" t="s">
+        <v>28</v>
+      </c>
+      <c r="I469">
+        <v>21</v>
+      </c>
+      <c r="J469" t="s">
+        <v>23</v>
+      </c>
+      <c r="K469">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A470" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470" t="s">
+        <v>12</v>
+      </c>
+      <c r="D470" t="s">
+        <v>51</v>
+      </c>
+      <c r="E470" t="s">
+        <v>55</v>
+      </c>
+      <c r="F470">
+        <v>10</v>
+      </c>
+      <c r="G470" t="s">
+        <v>15</v>
+      </c>
+      <c r="H470" t="s">
+        <v>16</v>
+      </c>
+      <c r="I470">
+        <v>21</v>
+      </c>
+      <c r="J470" t="s">
+        <v>40</v>
+      </c>
+      <c r="K470">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A471" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B471" t="s">
+        <v>11</v>
+      </c>
+      <c r="C471" t="s">
+        <v>12</v>
+      </c>
+      <c r="D471" t="s">
+        <v>51</v>
+      </c>
+      <c r="E471" t="s">
+        <v>55</v>
+      </c>
+      <c r="F471">
+        <v>10</v>
+      </c>
+      <c r="G471" t="s">
+        <v>15</v>
+      </c>
+      <c r="H471" t="s">
+        <v>28</v>
+      </c>
+      <c r="I471">
+        <v>21</v>
+      </c>
+      <c r="J471" t="s">
+        <v>30</v>
+      </c>
+      <c r="K471">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A472" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B472" t="s">
+        <v>11</v>
+      </c>
+      <c r="C472" t="s">
+        <v>12</v>
+      </c>
+      <c r="D472" t="s">
+        <v>51</v>
+      </c>
+      <c r="E472" t="s">
+        <v>56</v>
+      </c>
+      <c r="F472">
+        <v>10</v>
+      </c>
+      <c r="G472" t="s">
+        <v>19</v>
+      </c>
+      <c r="H472" t="s">
+        <v>16</v>
+      </c>
+      <c r="I472">
+        <v>21</v>
+      </c>
+      <c r="J472" t="s">
+        <v>20</v>
+      </c>
+      <c r="K472">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A473" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B473" t="s">
+        <v>11</v>
+      </c>
+      <c r="C473" t="s">
+        <v>12</v>
+      </c>
+      <c r="D473" t="s">
+        <v>51</v>
+      </c>
+      <c r="E473" t="s">
+        <v>56</v>
+      </c>
+      <c r="F473">
+        <v>10</v>
+      </c>
+      <c r="G473" t="s">
+        <v>19</v>
+      </c>
+      <c r="H473" t="s">
+        <v>28</v>
+      </c>
+      <c r="I473">
+        <v>21</v>
+      </c>
+      <c r="J473" t="s">
+        <v>60</v>
+      </c>
+      <c r="K473">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A474" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B474" t="s">
+        <v>11</v>
+      </c>
+      <c r="C474" t="s">
+        <v>12</v>
+      </c>
+      <c r="D474" t="s">
+        <v>51</v>
+      </c>
+      <c r="E474" t="s">
+        <v>58</v>
+      </c>
+      <c r="F474">
+        <v>10</v>
+      </c>
+      <c r="G474" t="s">
+        <v>102</v>
+      </c>
+      <c r="H474" t="s">
+        <v>16</v>
+      </c>
+      <c r="I474">
+        <v>21</v>
+      </c>
+      <c r="J474" t="s">
+        <v>23</v>
+      </c>
+      <c r="K474">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A475" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B475" t="s">
+        <v>11</v>
+      </c>
+      <c r="C475" t="s">
+        <v>12</v>
+      </c>
+      <c r="D475" t="s">
+        <v>51</v>
+      </c>
+      <c r="E475" t="s">
+        <v>58</v>
+      </c>
+      <c r="F475">
+        <v>10</v>
+      </c>
+      <c r="G475" t="s">
+        <v>102</v>
+      </c>
+      <c r="H475" t="s">
+        <v>28</v>
+      </c>
+      <c r="I475">
+        <v>21</v>
+      </c>
+      <c r="J475" t="s">
+        <v>30</v>
+      </c>
+      <c r="K475">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A476" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B476" t="s">
+        <v>11</v>
+      </c>
+      <c r="C476" t="s">
+        <v>12</v>
+      </c>
+      <c r="D476" t="s">
+        <v>62</v>
+      </c>
+      <c r="E476" t="s">
+        <v>66</v>
+      </c>
+      <c r="F476">
+        <v>12</v>
+      </c>
+      <c r="G476" t="s">
+        <v>15</v>
+      </c>
+      <c r="H476" t="s">
+        <v>16</v>
+      </c>
+      <c r="I476">
+        <v>21</v>
+      </c>
+      <c r="J476" t="s">
+        <v>20</v>
+      </c>
+      <c r="K476">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A477" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B477" t="s">
+        <v>11</v>
+      </c>
+      <c r="C477" t="s">
+        <v>12</v>
+      </c>
+      <c r="D477" t="s">
+        <v>62</v>
+      </c>
+      <c r="E477" t="s">
+        <v>66</v>
+      </c>
+      <c r="F477">
+        <v>12</v>
+      </c>
+      <c r="G477" t="s">
+        <v>15</v>
+      </c>
+      <c r="H477" t="s">
+        <v>28</v>
+      </c>
+      <c r="I477">
+        <v>21</v>
+      </c>
+      <c r="J477" t="s">
+        <v>20</v>
+      </c>
+      <c r="K477">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A478" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B478" t="s">
+        <v>11</v>
+      </c>
+      <c r="C478" t="s">
+        <v>12</v>
+      </c>
+      <c r="D478" t="s">
+        <v>62</v>
+      </c>
+      <c r="E478" t="s">
+        <v>67</v>
+      </c>
+      <c r="F478">
+        <v>12</v>
+      </c>
+      <c r="G478" t="s">
+        <v>19</v>
+      </c>
+      <c r="H478" t="s">
+        <v>16</v>
+      </c>
+      <c r="I478">
+        <v>21</v>
+      </c>
+      <c r="J478" t="s">
+        <v>49</v>
+      </c>
+      <c r="K478">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A479" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B479" t="s">
+        <v>11</v>
+      </c>
+      <c r="C479" t="s">
+        <v>12</v>
+      </c>
+      <c r="D479" t="s">
+        <v>62</v>
+      </c>
+      <c r="E479" t="s">
+        <v>67</v>
+      </c>
+      <c r="F479">
+        <v>12</v>
+      </c>
+      <c r="G479" t="s">
+        <v>19</v>
+      </c>
+      <c r="H479" t="s">
+        <v>28</v>
+      </c>
+      <c r="I479">
+        <v>21</v>
+      </c>
+      <c r="J479" t="s">
+        <v>20</v>
+      </c>
+      <c r="K479">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A480" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B480" t="s">
+        <v>11</v>
+      </c>
+      <c r="C480" t="s">
+        <v>12</v>
+      </c>
+      <c r="D480" t="s">
+        <v>62</v>
+      </c>
+      <c r="E480" t="s">
+        <v>68</v>
+      </c>
+      <c r="F480">
+        <v>12</v>
+      </c>
+      <c r="G480" t="s">
+        <v>102</v>
+      </c>
+      <c r="H480" t="s">
+        <v>16</v>
+      </c>
+      <c r="I480">
+        <v>21</v>
+      </c>
+      <c r="J480" t="s">
+        <v>61</v>
+      </c>
+      <c r="K480">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A481" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481" t="s">
+        <v>12</v>
+      </c>
+      <c r="D481" t="s">
+        <v>62</v>
+      </c>
+      <c r="E481" t="s">
+        <v>68</v>
+      </c>
+      <c r="F481">
+        <v>12</v>
+      </c>
+      <c r="G481" t="s">
+        <v>102</v>
+      </c>
+      <c r="H481" t="s">
+        <v>28</v>
+      </c>
+      <c r="I481">
+        <v>21</v>
+      </c>
+      <c r="J481" t="s">
+        <v>20</v>
+      </c>
+      <c r="K481">
         <v>5.18</v>
       </c>
     </row>
